--- a/SchedulingData/dynamic16/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>212.06</v>
+        <v>263.02</v>
       </c>
       <c r="D2" t="n">
-        <v>284.54</v>
+        <v>314.52</v>
       </c>
       <c r="E2" t="n">
-        <v>11.696</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>227.26</v>
+        <v>255.92</v>
       </c>
       <c r="D3" t="n">
-        <v>274.46</v>
+        <v>322.68</v>
       </c>
       <c r="E3" t="n">
-        <v>12.384</v>
+        <v>12.332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>274.46</v>
+        <v>207.36</v>
       </c>
       <c r="D4" t="n">
-        <v>323.12</v>
+        <v>270.08</v>
       </c>
       <c r="E4" t="n">
-        <v>9.628</v>
+        <v>14.532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>255.12</v>
+        <v>270.08</v>
       </c>
       <c r="D5" t="n">
-        <v>302.08</v>
+        <v>332.62</v>
       </c>
       <c r="E5" t="n">
-        <v>10.032</v>
+        <v>11.408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>205.86</v>
+        <v>203.42</v>
       </c>
       <c r="D6" t="n">
-        <v>270.16</v>
+        <v>281</v>
       </c>
       <c r="E6" t="n">
-        <v>16.524</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="7">
@@ -561,22 +561,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>284.54</v>
+        <v>208.66</v>
       </c>
       <c r="D7" t="n">
-        <v>321.62</v>
+        <v>273.96</v>
       </c>
       <c r="E7" t="n">
-        <v>8.628</v>
+        <v>11.744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,70 +584,70 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>240.18</v>
+        <v>322.68</v>
       </c>
       <c r="D8" t="n">
-        <v>301.28</v>
+        <v>383.68</v>
       </c>
       <c r="E8" t="n">
-        <v>10.592</v>
+        <v>7.852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>323.12</v>
+        <v>314.52</v>
       </c>
       <c r="D9" t="n">
-        <v>396</v>
+        <v>375.64</v>
       </c>
       <c r="E9" t="n">
-        <v>4.98</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>321.62</v>
+        <v>375.64</v>
       </c>
       <c r="D10" t="n">
-        <v>390.98</v>
+        <v>418.04</v>
       </c>
       <c r="E10" t="n">
-        <v>3.812</v>
+        <v>5.596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217.24</v>
+        <v>226.26</v>
       </c>
       <c r="D11" t="n">
-        <v>269.96</v>
+        <v>272.92</v>
       </c>
       <c r="E11" t="n">
-        <v>13.624</v>
+        <v>11.388</v>
       </c>
     </row>
     <row r="12">
@@ -656,117 +656,117 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>269.96</v>
+        <v>281</v>
       </c>
       <c r="D12" t="n">
-        <v>320.56</v>
+        <v>326.86</v>
       </c>
       <c r="E12" t="n">
-        <v>9.204000000000001</v>
+        <v>11.404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>390.98</v>
+        <v>383.68</v>
       </c>
       <c r="D13" t="n">
-        <v>454</v>
+        <v>433.58</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>4.492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>454</v>
+        <v>332.62</v>
       </c>
       <c r="D14" t="n">
-        <v>529.8</v>
+        <v>395.3</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>302.08</v>
+        <v>273.96</v>
       </c>
       <c r="D15" t="n">
-        <v>355.28</v>
+        <v>334.06</v>
       </c>
       <c r="E15" t="n">
-        <v>5.352</v>
+        <v>7.844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>355.28</v>
+        <v>334.06</v>
       </c>
       <c r="D16" t="n">
-        <v>423.3</v>
+        <v>409.04</v>
       </c>
       <c r="E16" t="n">
-        <v>2.14</v>
+        <v>3.956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>423.3</v>
+        <v>418.04</v>
       </c>
       <c r="D17" t="n">
-        <v>520.3200000000001</v>
+        <v>459.74</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>2.556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,241 +774,241 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>520.3200000000001</v>
+        <v>433.58</v>
       </c>
       <c r="D18" t="n">
-        <v>573.3200000000001</v>
+        <v>500.48</v>
       </c>
       <c r="E18" t="n">
-        <v>26.4</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>320.56</v>
+        <v>500.48</v>
       </c>
       <c r="D19" t="n">
-        <v>406</v>
+        <v>575.7</v>
       </c>
       <c r="E19" t="n">
-        <v>4.78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>396</v>
+        <v>395.3</v>
       </c>
       <c r="D20" t="n">
-        <v>472.84</v>
+        <v>447.76</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>3.624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>472.84</v>
+        <v>409.04</v>
       </c>
       <c r="D21" t="n">
-        <v>559.1799999999999</v>
+        <v>465.74</v>
       </c>
       <c r="E21" t="n">
-        <v>25.016</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>270.16</v>
+        <v>465.74</v>
       </c>
       <c r="D22" t="n">
-        <v>315.06</v>
+        <v>546.61</v>
       </c>
       <c r="E22" t="n">
-        <v>13.164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>406</v>
+        <v>575.7</v>
       </c>
       <c r="D23" t="n">
-        <v>448.76</v>
+        <v>641.2</v>
       </c>
       <c r="E23" t="n">
-        <v>1.644</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>448.76</v>
+        <v>272.92</v>
       </c>
       <c r="D24" t="n">
-        <v>541.87</v>
+        <v>336.36</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>7.644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>301.28</v>
+        <v>459.74</v>
       </c>
       <c r="D25" t="n">
-        <v>352.78</v>
+        <v>526.53</v>
       </c>
       <c r="E25" t="n">
-        <v>7.552</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>529.8</v>
+        <v>526.53</v>
       </c>
       <c r="D26" t="n">
-        <v>600.84</v>
+        <v>601.13</v>
       </c>
       <c r="E26" t="n">
-        <v>27.036</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>541.87</v>
+        <v>641.2</v>
       </c>
       <c r="D27" t="n">
-        <v>603.97</v>
+        <v>700.8</v>
       </c>
       <c r="E27" t="n">
-        <v>26.46</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600.84</v>
+        <v>447.76</v>
       </c>
       <c r="D28" t="n">
-        <v>661.86</v>
+        <v>536.91</v>
       </c>
       <c r="E28" t="n">
-        <v>22.564</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>315.06</v>
+        <v>536.91</v>
       </c>
       <c r="D29" t="n">
-        <v>360.46</v>
+        <v>606.9299999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>9.263999999999999</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>573.3200000000001</v>
+        <v>326.86</v>
       </c>
       <c r="D30" t="n">
-        <v>609.7</v>
+        <v>392.2</v>
       </c>
       <c r="E30" t="n">
-        <v>23.892</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="31">
@@ -1017,321 +1017,359 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>609.7</v>
+        <v>336.36</v>
       </c>
       <c r="D31" t="n">
-        <v>672</v>
+        <v>372.74</v>
       </c>
       <c r="E31" t="n">
-        <v>20.292</v>
+        <v>5.136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>672</v>
+        <v>606.9299999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>757.6</v>
+        <v>664.13</v>
       </c>
       <c r="E32" t="n">
-        <v>15.812</v>
+        <v>23.568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>352.78</v>
+        <v>546.61</v>
       </c>
       <c r="D33" t="n">
-        <v>429.38</v>
+        <v>587.41</v>
       </c>
       <c r="E33" t="n">
-        <v>4.472</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>661.86</v>
+        <v>372.74</v>
       </c>
       <c r="D34" t="n">
-        <v>717.0599999999999</v>
+        <v>419.34</v>
       </c>
       <c r="E34" t="n">
-        <v>18.664</v>
+        <v>2.616</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603.97</v>
+        <v>587.41</v>
       </c>
       <c r="D35" t="n">
-        <v>656.67</v>
+        <v>653.17</v>
       </c>
       <c r="E35" t="n">
-        <v>23.82</v>
+        <v>23.164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>717.0599999999999</v>
+        <v>601.13</v>
       </c>
       <c r="D36" t="n">
-        <v>758.72</v>
+        <v>680.41</v>
       </c>
       <c r="E36" t="n">
-        <v>15.628</v>
+        <v>22.892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>360.46</v>
+        <v>700.8</v>
       </c>
       <c r="D37" t="n">
-        <v>403.6</v>
+        <v>747.34</v>
       </c>
       <c r="E37" t="n">
-        <v>6.58</v>
+        <v>20.736</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>403.6</v>
+        <v>392.2</v>
       </c>
       <c r="D38" t="n">
-        <v>446.3</v>
+        <v>458.6</v>
       </c>
       <c r="E38" t="n">
-        <v>3.94</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>429.38</v>
+        <v>419.34</v>
       </c>
       <c r="D39" t="n">
-        <v>494.36</v>
+        <v>486.01</v>
       </c>
       <c r="E39" t="n">
-        <v>0.584</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>494.36</v>
+        <v>486.01</v>
       </c>
       <c r="D40" t="n">
-        <v>579.79</v>
+        <v>544.01</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>559.1799999999999</v>
+        <v>458.6</v>
       </c>
       <c r="D41" t="n">
-        <v>600.72</v>
+        <v>539.28</v>
       </c>
       <c r="E41" t="n">
-        <v>21.992</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>757.6</v>
+        <v>539.28</v>
       </c>
       <c r="D42" t="n">
-        <v>804.3</v>
+        <v>593.08</v>
       </c>
       <c r="E42" t="n">
-        <v>12.272</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>446.3</v>
+        <v>544.01</v>
       </c>
       <c r="D43" t="n">
-        <v>520.4</v>
+        <v>625.03</v>
       </c>
       <c r="E43" t="n">
-        <v>0.64</v>
+        <v>22.888</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>520.4</v>
+        <v>625.03</v>
       </c>
       <c r="D44" t="n">
-        <v>615.72</v>
+        <v>678.95</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>20.116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>615.72</v>
+        <v>678.95</v>
       </c>
       <c r="D45" t="n">
-        <v>680.6</v>
+        <v>726.89</v>
       </c>
       <c r="E45" t="n">
-        <v>26.192</v>
+        <v>17.432</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>680.6</v>
+        <v>593.08</v>
       </c>
       <c r="D46" t="n">
-        <v>750.1</v>
+        <v>656.9400000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>23.332</v>
+        <v>21.064</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>600.72</v>
+        <v>726.89</v>
       </c>
       <c r="D47" t="n">
-        <v>662.12</v>
+        <v>767.9299999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>17.972</v>
+        <v>14.468</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>pond45</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>664.13</v>
+      </c>
+      <c r="D48" t="n">
+        <v>716.01</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>pond22</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>680.41</v>
+      </c>
+      <c r="D49" t="n">
+        <v>714.37</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20.136</v>
       </c>
     </row>
   </sheetData>
